--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Cyprus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>30th Anniversary - European Union flag</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -443,12 +449,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,7 +479,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -482,14 +488,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -571,23 +578,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -609,9 +599,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="14"/>
-    <tableColumn id="2" name="Link" dataDxfId="13" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="12"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -886,7 +876,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -953,12 +943,16 @@
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -1039,9 +1033,13 @@
       <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1125,9 +1123,13 @@
       <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="30" t="s">
+      <c r="C9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -1182,9 +1184,13 @@
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="30" t="s">
+      <c r="C11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -1210,7 +1216,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1227,7 +1233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1244,7 +1250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1261,7 +1267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1278,7 +1284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1295,7 +1301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1312,7 +1318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1329,7 +1335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H9">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1346,7 +1352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1363,7 +1369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1462,7 +1468,7 @@
       <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1473,7 +1479,7 @@
       <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Cyprus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -455,6 +455,9 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,9 +480,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -876,46 +876,46 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -936,14 +936,14 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -959,14 +959,14 @@
         <v>7</v>
       </c>
       <c r="H3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="10" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -996,7 +996,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -1026,14 +1026,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1056,7 +1056,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -1116,14 +1116,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1146,7 +1146,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -1177,14 +1177,14 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1399,14 +1399,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B2C84-3A74-479F-BCEA-87C29D228C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +26,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
-    <author>Пользователь Windows</author>
+    <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{CD501B07-102D-43AA-9B5C-3BB80503E440}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{7582DD39-FF77-43EA-B80D-B007D7BF15C9}">
       <text>
         <r>
           <rPr>
@@ -58,12 +59,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{2D79C93A-E2E4-4160-B661-31F44B3B12BA}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{448A6FB8-4D67-4D8C-A512-33133CBD8016}">
       <text>
         <r>
           <rPr>
@@ -90,8 +91,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Monnaie de Paris
-(Paris mint)</t>
+          <t>Suomen Rahapaja
+(Finland (Vantaa) mint)</t>
         </r>
       </text>
     </comment>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -126,9 +127,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -199,12 +197,21 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>412.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 years since the foundation of the Cyprus Institute of Neurology and Genetics	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,9 +493,65 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -592,16 +655,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -869,14 +932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -923,16 +986,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -941,19 +1004,19 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>7</v>
@@ -1031,16 +1094,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>7</v>
@@ -1121,16 +1184,16 @@
         <v>2015</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>7</v>
@@ -1182,16 +1245,16 @@
         <v>2017</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>7</v>
@@ -1204,6 +1267,96 @@
       </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" ref="I12:I14" si="2">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1216,12 +1369,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1233,12 +1386,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1250,11 +1403,96 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1266,12 +1504,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1283,12 +1521,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1300,12 +1538,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1317,12 +1555,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1334,13 +1572,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1351,13 +1589,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1368,12 +1606,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1392,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1408,13 +1646,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,10 +1682,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1455,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,10 +1704,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,20 +1715,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Cyprus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B2C84-3A74-479F-BCEA-87C29D228C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3617D-D16A-446B-8A32-FE19FB2D4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -206,12 +215,21 @@
   </si>
   <si>
     <t xml:space="preserve">30 years since the foundation of the Cyprus Institute of Neurology and Genetics	</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>60th Anniversary - Central Bank of Cyprus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +425,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -489,13 +507,142 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -560,86 +707,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,9 +729,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="8" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -933,29 +1000,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -976,7 +1043,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
@@ -999,7 +1066,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2009</v>
       </c>
@@ -1029,7 +1096,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -1059,7 +1126,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -1089,7 +1156,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
@@ -1119,7 +1186,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -1149,7 +1216,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -1179,7 +1246,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -1199,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>7</v>
@@ -1209,7 +1276,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -1240,7 +1307,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
@@ -1270,7 +1337,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -1300,7 +1367,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -1330,9 +1397,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>34</v>
@@ -1350,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>7</v>
@@ -1359,6 +1426,104 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" ref="I15:I16" si="3">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" ref="I17" si="4">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-"),AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+    </row>
+    <row r="38" spans="19:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1369,12 +1534,12 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
-    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1386,11 +1551,113 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="18" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H9">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1402,12 +1669,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1419,12 +1686,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H10">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1436,12 +1703,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1453,12 +1720,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1470,12 +1737,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1487,13 +1754,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H9">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1504,12 +1771,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1521,12 +1788,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1538,12 +1805,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="H15">
     <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1555,12 +1822,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1572,29 +1839,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H17">
     <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1606,12 +1856,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1634,17 +1901,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1666,7 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1677,7 +1944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1688,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -1699,7 +1966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1710,7 +1977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>6</v>
       </c>

--- a/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Cyprus/#EURO#Cyprus#Commemorative#[2009-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Cyprus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3617D-D16A-446B-8A32-FE19FB2D4889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB92A78-397A-4CE6-BAE4-601DEAD69B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>60th Anniversary - Central Bank of Cyprus</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -483,6 +483,7 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,198 +508,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -707,6 +523,174 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,9 +713,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="24" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1006,7 +990,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1023,46 +1007,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1071,22 +1055,22 @@
         <v>2009</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1101,25 +1085,25 @@
         <v>2010</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="10" t="str">
         <f t="shared" ref="I4:I11" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1131,25 +1115,25 @@
         <v>2011</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1161,25 +1145,25 @@
         <v>2012</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1191,25 +1175,25 @@
         <v>2013</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1221,25 +1205,25 @@
         <v>2014</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1251,25 +1235,25 @@
         <v>2015</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" ref="I9" si="1">IF(OR(AND(G9&gt;1,G9&lt;&gt;"-"),AND(H9&gt;1,H9&lt;&gt;"-")),"Can exchange","")</f>
@@ -1281,25 +1265,25 @@
         <v>2016</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1312,25 +1296,25 @@
         <v>2017</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1342,25 +1326,25 @@
         <v>2018</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="10" t="str">
         <f t="shared" ref="I12:I14" si="2">IF(OR(AND(G12&gt;1,G12&lt;&gt;"-"),AND(H12&gt;1,H12&lt;&gt;"-")),"Can exchange","")</f>
@@ -1372,25 +1356,25 @@
         <v>2019</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1402,25 +1386,25 @@
         <v>2020</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1432,25 +1416,25 @@
         <v>2021</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" ref="I15:I16" si="3">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
@@ -1462,25 +1446,25 @@
         <v>2022</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1492,25 +1476,25 @@
         <v>2023</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" ref="I17" si="4">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-"),AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
@@ -1518,12 +1502,12 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="38" spans="19:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1534,7 +1518,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:H6 G3:G5 G11:H11">
-    <cfRule type="containsText" dxfId="22" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1551,7 +1535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1568,7 +1552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1585,7 +1569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1602,7 +1586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="18" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1619,7 +1603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1636,7 +1620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1653,7 +1637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H9">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1670,7 +1654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1687,7 +1671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1704,7 +1688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1721,7 +1705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1738,7 +1722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1755,7 +1739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1772,7 +1756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1789,7 +1773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1806,7 +1790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1823,7 +1807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1840,7 +1824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1857,7 +1841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1874,7 +1858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1913,13 +1897,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1927,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1938,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1949,10 +1933,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1960,10 +1944,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1971,10 +1955,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1982,10 +1966,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
